--- a/public/myanmar name.xlsx
+++ b/public/myanmar name.xlsx
@@ -409,22 +409,17 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>လင်းလင်း</v>
+        <v>မန်ကျီးပင်</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>မောင်မောင်</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>မြမောင်</v>
+        <v>ရေကျော်</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>ဦးလှ</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/public/myanmar name.xlsx
+++ b/public/myanmar name.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -406,6 +406,12 @@
       <c r="A1" t="str">
         <v>မြမြ</v>
       </c>
+      <c r="B1" t="str">
+        <v>သပြေ</v>
+      </c>
+      <c r="C1" t="str">
+        <v>မီးလုံး</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,7 +430,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>